--- a/R/analysis/data/Pt_24_Control.xlsx
+++ b/R/analysis/data/Pt_24_Control.xlsx
@@ -524,7 +524,7 @@
         <v>0.71</v>
       </c>
       <c r="N2" t="n">
-        <v>-3.5</v>
+        <v>3.5</v>
       </c>
       <c r="O2" t="n">
         <v>0.35</v>
@@ -578,7 +578,7 @@
         <v>1.82</v>
       </c>
       <c r="L3" t="n">
-        <v>-5.4</v>
+        <v>5.4</v>
       </c>
       <c r="M3" t="n">
         <v>2.31</v>
@@ -635,16 +635,16 @@
         <v>1.48</v>
       </c>
       <c r="K4" t="n">
-        <v>6.77</v>
+        <v>0.87</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.62</v>
+        <v>4.78</v>
       </c>
       <c r="M4" t="n">
-        <v>5.78</v>
+        <v>0.83</v>
       </c>
       <c r="N4" t="n">
-        <v>0.58</v>
+        <v>4.08</v>
       </c>
       <c r="O4" t="n">
         <v>0.08</v>
@@ -704,7 +704,7 @@
         <v>1.41</v>
       </c>
       <c r="N5" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>1.64</v>
       </c>
       <c r="L6" t="n">
-        <v>-3.8</v>
+        <v>3.8</v>
       </c>
       <c r="M6" t="n">
         <v>0.58</v>
@@ -815,16 +815,16 @@
         <v>1.63</v>
       </c>
       <c r="K7" t="n">
-        <v>6.46</v>
+        <v>1.08</v>
       </c>
       <c r="L7" t="n">
-        <v>0.77</v>
+        <v>4.56</v>
       </c>
       <c r="M7" t="n">
-        <v>4.72</v>
+        <v>0.47</v>
       </c>
       <c r="N7" t="n">
-        <v>0.33</v>
+        <v>3.34</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -884,7 +884,7 @@
         <v>1.73</v>
       </c>
       <c r="N8" t="n">
-        <v>-4.5</v>
+        <v>4.5</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0.96</v>
       </c>
       <c r="L9" t="n">
-        <v>-5.75</v>
+        <v>5.75</v>
       </c>
       <c r="M9" t="n">
         <v>0.82</v>
@@ -995,16 +995,16 @@
         <v>0.9</v>
       </c>
       <c r="K10" t="n">
-        <v>7.6</v>
+        <v>0.53</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.38</v>
+        <v>5.38</v>
       </c>
       <c r="M10" t="n">
-        <v>5.3</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.75</v>
+        <v>3.75</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="M11"/>
       <c r="N11" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>1.14</v>
       </c>
       <c r="L12" t="n">
-        <v>-5.6</v>
+        <v>5.6</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
@@ -1171,16 +1171,16 @@
         <v>2.16</v>
       </c>
       <c r="K13" t="n">
-        <v>7.7</v>
+        <v>0.22</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.15</v>
+        <v>5.44</v>
       </c>
       <c r="M13" t="n">
-        <v>5.66</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O13" t="n">
         <v>0.08</v>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="M14"/>
       <c r="N14" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1287,10 +1287,10 @@
         <v>2.66</v>
       </c>
       <c r="K15" t="n">
-        <v>2.5</v>
+        <v>1.79</v>
       </c>
       <c r="L15" t="n">
-        <v>-3.67</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
         <v>0.71</v>
@@ -1347,16 +1347,16 @@
         <v>3.13</v>
       </c>
       <c r="K16" t="n">
-        <v>6.43</v>
+        <v>1.01</v>
       </c>
       <c r="L16" t="n">
-        <v>0.88</v>
+        <v>4.72</v>
       </c>
       <c r="M16" t="n">
-        <v>4.6</v>
+        <v>0.35</v>
       </c>
       <c r="N16" t="n">
-        <v>0.25</v>
+        <v>3.25</v>
       </c>
       <c r="O16" t="n">
         <v>0.08</v>
@@ -1461,10 +1461,10 @@
         <v>0.47</v>
       </c>
       <c r="K18" t="n">
-        <v>4.04</v>
+        <v>1.57</v>
       </c>
       <c r="L18" t="n">
-        <v>-3.43</v>
+        <v>4.86</v>
       </c>
       <c r="M18"/>
       <c r="N18" t="n">
@@ -1517,10 +1517,10 @@
         <v>0.47</v>
       </c>
       <c r="K19" t="n">
-        <v>6.31</v>
+        <v>0.45</v>
       </c>
       <c r="L19" t="n">
-        <v>1.03</v>
+        <v>5.18</v>
       </c>
       <c r="M19"/>
       <c r="N19" t="n">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="M20"/>
       <c r="N20" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1634,7 +1634,7 @@
         <v>1.15</v>
       </c>
       <c r="L21" t="n">
-        <v>-5.67</v>
+        <v>5.67</v>
       </c>
       <c r="M21" t="n">
         <v>0.45</v>
@@ -1691,16 +1691,16 @@
         <v>1.16</v>
       </c>
       <c r="K22" t="n">
-        <v>8.15</v>
+        <v>0.13</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1</v>
+        <v>5.77</v>
       </c>
       <c r="M22" t="n">
-        <v>5.52</v>
+        <v>1.27</v>
       </c>
       <c r="N22" t="n">
-        <v>0.9</v>
+        <v>3.9</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="M23"/>
       <c r="N23" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="M24" t="n">
         <v>0.84</v>
@@ -1867,16 +1867,16 @@
         <v>0.38</v>
       </c>
       <c r="K25" t="n">
-        <v>7.88</v>
+        <v>0.61</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.43</v>
+        <v>5.57</v>
       </c>
       <c r="M25" t="n">
-        <v>6.51</v>
+        <v>0.57</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.4</v>
+        <v>4.6</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="M26"/>
       <c r="N26" t="n">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -1986,13 +1986,13 @@
         <v>1.73</v>
       </c>
       <c r="L27" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="M27" t="n">
-        <v>4.6</v>
+        <v>0.45</v>
       </c>
       <c r="N27" t="n">
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -2043,16 +2043,16 @@
         <v>0.39</v>
       </c>
       <c r="K28" t="n">
-        <v>7.68</v>
+        <v>0.61</v>
       </c>
       <c r="L28" t="n">
-        <v>0.43</v>
+        <v>5.43</v>
       </c>
       <c r="M28" t="n">
-        <v>7.21</v>
+        <v>1.27</v>
       </c>
       <c r="N28" t="n">
-        <v>-1.9</v>
+        <v>6.1</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
